--- a/pred_ohlcv/54_21/2020-01-11 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 PLY ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-4713078.632999999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4712681.352499998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-4051010.546499998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-4006276.595399998</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-3842480.326399998</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-3842111.134699998</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-3842111.134699998</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3585969.351499998</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3585969.351499998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-4775588.798899999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-5039637.483799999</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-5076577.760499999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-5162570.086499999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-5873781.258699999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-9866546.091578705</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-9816129.865178706</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-9816129.865178706</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-9850465.692278706</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-10059177.86067871</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-10451609.05207871</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-6642057.736178706</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-6641852.057678706</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-6558890.238785367</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-6562367.393885368</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-6514586.513285368</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-6557641.073485368</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-6556156.047485368</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-6602120.330485368</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-6602120.330485368</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-6602120.330485368</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-6374105.315285368</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-6367740.057285368</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-6109471.674485368</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-6159990.117485368</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-6159990.117485368</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-6112762.115485367</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-5861385.547774334</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-5978304.995474334</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-6667692.507974334</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-7167692.507974334</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-7167692.507974334</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-7167692.507974334</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-27669403.22324414</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-27669657.22324414</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-27669657.22324414</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-27669657.22324414</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-27669507.22324414</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-28238687.12024414</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-28238687.12024414</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-28238687.12024414</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-28484250.50524414</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-28484100.50524414</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-28434413.08034414</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-28336329.39724414</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-28286204.39724414</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-28261054.39724414</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-28261054.39724414</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-28261054.39724414</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-28298435.91364414</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-28298285.91364414</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-28298285.91364414</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-28152972.85974414</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-28268768.85124414</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-28082927.75169818</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-25308359.52169818</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-25308359.52169818</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-25427830.19759819</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-25385297.34209818</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-25596851.70159818</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-25204259.36529818</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 PLY ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-4713078.632999999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4712681.352499998</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-4051010.546499998</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-4006276.595399998</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-3842480.326399998</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-3842111.134699998</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-3842111.134699998</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3585969.351499998</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3585969.351499998</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3585637.681699999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-3639123.526099999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-3638808.439799998</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-4761157.883099998</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-4760854.677899999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-4775588.798899999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-4775018.307799999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-4774761.700399999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-4775478.090399998</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-4775233.722999998</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-4920187.653299998</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-5052083.883599998</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-5873781.258699999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-6642057.736178706</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-6641852.057678706</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-6558890.238785367</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-6562367.393885368</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-6514586.513285368</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-6557641.073485368</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-6556156.047485368</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-6602120.330485368</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-6602120.330485368</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-6602120.330485368</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-6374105.315285368</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-6367740.057285368</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-6109471.674485368</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-6159990.117485368</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-6159990.117485368</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-6112762.115485367</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-5861385.547774334</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-5978304.995474334</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-6667692.507974334</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-7167692.507974334</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-7167692.507974334</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-7167692.507974334</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-27477343.90054414</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-27669403.22324414</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-27669657.22324414</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-27669657.22324414</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-27669657.22324414</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-27669507.22324414</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-28238687.12024414</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-28238687.12024414</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-28238687.12024414</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-28484250.50524414</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-28484100.50524414</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-28407170.50524414</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-28405254.18834414</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-28433331.96604414</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-28433331.96604414</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-28434539.08034414</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-28434413.08034414</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-28336329.39724414</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-28286204.39724414</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-28261054.39724414</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-28261054.39724414</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-28261054.39724414</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-28298435.91364414</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-28298285.91364414</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-28298285.91364414</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-28152972.85974414</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-28131317.75169818</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-28131317.75169818</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-27868097.52779818</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-27868097.52779818</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-27625742.24419818</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-23636350.22699818</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-24498976.23459818</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-25188687.79139818</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-25621679.90639818</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-25308359.52169818</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-25308359.52169818</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-25427830.19759819</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-25385297.34209818</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-25596851.70159818</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-25204259.36529818</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
